--- a/src/main/resources/assets/stations_info.xlsx
+++ b/src/main/resources/assets/stations_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eun/Downloads/dev/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB467E9-1218-434C-8699-18D855B9D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43566A19-7D85-6E40-B12B-0768CBBADE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22780" windowHeight="8120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25000" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="운영기관_역사_코드정보" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="994">
   <si>
     <t>RAIL_OPR_ISTT_NM</t>
   </si>
@@ -2519,9 +2519,6 @@
   </si>
   <si>
     <t>2566</t>
-  </si>
-  <si>
-    <t>하남검단산역</t>
   </si>
   <si>
     <t>2559</t>
@@ -3003,6 +3000,14 @@
   </si>
   <si>
     <t>자양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남검단산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3367,8 +3372,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F444" sqref="F444"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H519" sqref="H519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -3459,7 +3464,7 @@
         <v>228</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3496,10 +3501,10 @@
         <v>742</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3519,7 +3524,7 @@
         <v>238</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3576,10 +3581,10 @@
         <v>742</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3596,7 +3601,7 @@
         <v>742</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>227</v>
@@ -3639,7 +3644,7 @@
         <v>231</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4696,7 +4701,7 @@
         <v>37</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>324</v>
@@ -6959,7 +6964,7 @@
         <v>674</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7236,7 +7241,7 @@
         <v>783</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>251</v>
@@ -7379,7 +7384,7 @@
         <v>794</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8019,7 +8024,7 @@
         <v>81</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8459,7 +8464,7 @@
         <v>117</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9999,7 +10004,7 @@
         <v>814</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -10536,7 +10541,7 @@
         <v>29</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>476</v>
@@ -10556,7 +10561,7 @@
         <v>29</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>350</v>
@@ -10576,7 +10581,7 @@
         <v>29</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>494</v>
@@ -10596,7 +10601,7 @@
         <v>29</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>481</v>
@@ -10636,7 +10641,7 @@
         <v>29</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>727</v>
@@ -10676,7 +10681,7 @@
         <v>29</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>583</v>
@@ -10696,7 +10701,7 @@
         <v>29</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>584</v>
@@ -10716,7 +10721,7 @@
         <v>29</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>505</v>
@@ -10736,7 +10741,7 @@
         <v>29</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>479</v>
@@ -10756,7 +10761,7 @@
         <v>29</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>6</v>
@@ -10776,7 +10781,7 @@
         <v>29</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>487</v>
@@ -10796,7 +10801,7 @@
         <v>29</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>491</v>
@@ -10816,7 +10821,7 @@
         <v>29</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>488</v>
@@ -10836,7 +10841,7 @@
         <v>29</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>483</v>
@@ -10856,7 +10861,7 @@
         <v>29</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>585</v>
@@ -10876,7 +10881,7 @@
         <v>29</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>492</v>
@@ -10896,7 +10901,7 @@
         <v>29</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>458</v>
@@ -10916,7 +10921,7 @@
         <v>29</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>497</v>
@@ -10936,7 +10941,7 @@
         <v>29</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>498</v>
@@ -10956,7 +10961,7 @@
         <v>29</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>478</v>
@@ -10996,7 +11001,7 @@
         <v>29</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>495</v>
@@ -11016,7 +11021,7 @@
         <v>29</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>728</v>
@@ -11058,8 +11063,8 @@
       <c r="E384" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="F384" s="2" t="s">
-        <v>832</v>
+      <c r="F384" s="4" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -11076,7 +11081,7 @@
         <v>25</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>480</v>
@@ -11096,7 +11101,7 @@
         <v>25</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>484</v>
@@ -11116,7 +11121,7 @@
         <v>25</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>440</v>
@@ -11136,7 +11141,7 @@
         <v>25</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>474</v>
@@ -11156,7 +11161,7 @@
         <v>25</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>427</v>
@@ -11176,7 +11181,7 @@
         <v>25</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>490</v>
@@ -11196,7 +11201,7 @@
         <v>25</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>723</v>
@@ -11216,7 +11221,7 @@
         <v>25</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>588</v>
@@ -11236,7 +11241,7 @@
         <v>25</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>40</v>
@@ -11256,7 +11261,7 @@
         <v>25</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>594</v>
@@ -11276,7 +11281,7 @@
         <v>25</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>722</v>
@@ -11296,7 +11301,7 @@
         <v>25</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>485</v>
@@ -11316,7 +11321,7 @@
         <v>25</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>420</v>
@@ -11336,7 +11341,7 @@
         <v>25</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>486</v>
@@ -11356,7 +11361,7 @@
         <v>25</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>706</v>
@@ -11376,7 +11381,7 @@
         <v>25</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>591</v>
@@ -11396,7 +11401,7 @@
         <v>25</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>237</v>
@@ -11416,7 +11421,7 @@
         <v>25</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>680</v>
@@ -11436,7 +11441,7 @@
         <v>25</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>452</v>
@@ -11456,7 +11461,7 @@
         <v>25</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>587</v>
@@ -11476,7 +11481,7 @@
         <v>25</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>489</v>
@@ -11496,7 +11501,7 @@
         <v>25</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>496</v>
@@ -11516,7 +11521,7 @@
         <v>25</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>711</v>
@@ -11536,7 +11541,7 @@
         <v>25</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>410</v>
@@ -11556,7 +11561,7 @@
         <v>25</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>503</v>
@@ -11576,7 +11581,7 @@
         <v>25</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>428</v>
@@ -11596,7 +11601,7 @@
         <v>25</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>403</v>
@@ -11616,7 +11621,7 @@
         <v>25</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>493</v>
@@ -11636,7 +11641,7 @@
         <v>25</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>499</v>
@@ -11656,7 +11661,7 @@
         <v>25</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>589</v>
@@ -11676,7 +11681,7 @@
         <v>25</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>729</v>
@@ -11696,7 +11701,7 @@
         <v>25</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>592</v>
@@ -11716,7 +11721,7 @@
         <v>25</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>5</v>
@@ -11736,7 +11741,7 @@
         <v>25</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>500</v>
@@ -11756,7 +11761,7 @@
         <v>25</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>285</v>
@@ -11776,7 +11781,7 @@
         <v>25</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>701</v>
@@ -11796,7 +11801,7 @@
         <v>25</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>590</v>
@@ -11816,7 +11821,7 @@
         <v>25</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>593</v>
@@ -11836,7 +11841,7 @@
         <v>25</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>362</v>
@@ -11856,7 +11861,7 @@
         <v>26</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>501</v>
@@ -11876,7 +11881,7 @@
         <v>26</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>263</v>
@@ -11896,7 +11901,7 @@
         <v>26</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>502</v>
@@ -11916,7 +11921,7 @@
         <v>26</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>475</v>
@@ -11936,7 +11941,7 @@
         <v>26</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>454</v>
@@ -11956,7 +11961,7 @@
         <v>26</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>526</v>
@@ -11976,7 +11981,7 @@
         <v>26</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>536</v>
@@ -11996,7 +12001,7 @@
         <v>26</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>595</v>
@@ -12016,7 +12021,7 @@
         <v>26</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>701</v>
@@ -12036,7 +12041,7 @@
         <v>26</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>528</v>
@@ -12056,7 +12061,7 @@
         <v>26</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>520</v>
@@ -12076,7 +12081,7 @@
         <v>26</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>598</v>
@@ -12096,7 +12101,7 @@
         <v>26</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>517</v>
@@ -12116,7 +12121,7 @@
         <v>26</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>531</v>
@@ -12136,7 +12141,7 @@
         <v>26</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>532</v>
@@ -12156,7 +12161,7 @@
         <v>26</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>511</v>
@@ -12176,7 +12181,7 @@
         <v>26</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>727</v>
@@ -12196,7 +12201,7 @@
         <v>26</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>596</v>
@@ -12216,7 +12221,7 @@
         <v>26</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>688</v>
@@ -12236,10 +12241,10 @@
         <v>26</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F443" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -12256,7 +12261,7 @@
         <v>26</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>509</v>
@@ -12276,7 +12281,7 @@
         <v>26</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>628</v>
@@ -12296,7 +12301,7 @@
         <v>26</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>534</v>
@@ -12316,7 +12321,7 @@
         <v>26</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>527</v>
@@ -12336,7 +12341,7 @@
         <v>26</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>537</v>
@@ -12356,7 +12361,7 @@
         <v>26</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>707</v>
@@ -12376,7 +12381,7 @@
         <v>26</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>513</v>
@@ -12396,7 +12401,7 @@
         <v>26</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>578</v>
@@ -12416,7 +12421,7 @@
         <v>26</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>530</v>
@@ -12436,7 +12441,7 @@
         <v>26</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>597</v>
@@ -12456,7 +12461,7 @@
         <v>26</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>510</v>
@@ -12476,7 +12481,7 @@
         <v>26</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>702</v>
@@ -12496,7 +12501,7 @@
         <v>26</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>705</v>
@@ -12516,7 +12521,7 @@
         <v>26</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>514</v>
@@ -12536,7 +12541,7 @@
         <v>26</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>506</v>
@@ -12556,7 +12561,7 @@
         <v>26</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>572</v>
@@ -12576,7 +12581,7 @@
         <v>26</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>533</v>
@@ -12596,7 +12601,7 @@
         <v>26</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>613</v>
@@ -12616,7 +12621,7 @@
         <v>26</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>508</v>
@@ -12636,7 +12641,7 @@
         <v>26</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>709</v>
@@ -12656,7 +12661,7 @@
         <v>26</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>518</v>
@@ -12676,7 +12681,7 @@
         <v>26</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>600</v>
@@ -12696,7 +12701,7 @@
         <v>30</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>519</v>
@@ -12716,7 +12721,7 @@
         <v>30</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>584</v>
@@ -12736,7 +12741,7 @@
         <v>30</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>710</v>
@@ -12756,7 +12761,7 @@
         <v>30</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>599</v>
@@ -12776,7 +12781,7 @@
         <v>30</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>565</v>
@@ -12796,7 +12801,7 @@
         <v>30</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>516</v>
@@ -12816,7 +12821,7 @@
         <v>30</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>524</v>
@@ -12836,7 +12841,7 @@
         <v>30</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>721</v>
@@ -12856,7 +12861,7 @@
         <v>30</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>529</v>
@@ -12876,7 +12881,7 @@
         <v>30</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>521</v>
@@ -12896,7 +12901,7 @@
         <v>30</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>523</v>
@@ -12916,7 +12921,7 @@
         <v>30</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>525</v>
@@ -12936,10 +12941,10 @@
         <v>30</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -12956,7 +12961,7 @@
         <v>30</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>715</v>
@@ -12976,7 +12981,7 @@
         <v>30</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>244</v>
@@ -12996,7 +13001,7 @@
         <v>30</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>543</v>
@@ -13016,7 +13021,7 @@
         <v>30</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>363</v>
@@ -13036,7 +13041,7 @@
         <v>30</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>22</v>
@@ -13056,7 +13061,7 @@
         <v>31</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>555</v>
@@ -13076,10 +13081,10 @@
         <v>31</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -13096,7 +13101,7 @@
         <v>31</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>717</v>
@@ -13116,7 +13121,7 @@
         <v>31</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>554</v>
@@ -13136,10 +13141,10 @@
         <v>31</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -13156,7 +13161,7 @@
         <v>31</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>737</v>
@@ -13176,7 +13181,7 @@
         <v>31</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>542</v>
@@ -13196,7 +13201,7 @@
         <v>31</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>544</v>
@@ -13216,7 +13221,7 @@
         <v>31</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>550</v>
@@ -13236,7 +13241,7 @@
         <v>31</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>545</v>
@@ -13256,7 +13261,7 @@
         <v>31</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>546</v>
@@ -13276,7 +13281,7 @@
         <v>31</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>549</v>
@@ -13296,7 +13301,7 @@
         <v>31</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>419</v>
@@ -13316,7 +13321,7 @@
         <v>31</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>735</v>
@@ -13336,7 +13341,7 @@
         <v>31</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>466</v>
@@ -13356,7 +13361,7 @@
         <v>31</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>552</v>
@@ -13376,7 +13381,7 @@
         <v>31</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>278</v>
@@ -13396,7 +13401,7 @@
         <v>31</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>553</v>
@@ -13416,7 +13421,7 @@
         <v>31</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>601</v>
@@ -13436,7 +13441,7 @@
         <v>31</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>712</v>
@@ -13456,7 +13461,7 @@
         <v>31</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>548</v>
@@ -13476,7 +13481,7 @@
         <v>31</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>557</v>
@@ -13496,7 +13501,7 @@
         <v>31</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>707</v>
@@ -13516,7 +13521,7 @@
         <v>31</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>547</v>
@@ -13536,7 +13541,7 @@
         <v>31</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>556</v>
@@ -13639,7 +13644,7 @@
         <v>208</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -13758,8 +13763,8 @@
       <c r="E519" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F519" s="2" t="s">
-        <v>585</v>
+      <c r="F519" s="4" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="520" spans="1:6">

--- a/src/main/resources/assets/stations_info.xlsx
+++ b/src/main/resources/assets/stations_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da-eun/Downloads/dev/src/main/resources/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43566A19-7D85-6E40-B12B-0768CBBADE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496FB62-6D58-E846-8C5E-782D363E8B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25000" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="995">
   <si>
     <t>RAIL_OPR_ISTT_NM</t>
   </si>
@@ -3008,6 +3008,10 @@
   </si>
   <si>
     <t>올림픽공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3372,8 +3376,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H519" sqref="H519"/>
+    <sheetView tabSelected="1" topLeftCell="A441" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H443" sqref="H443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -12403,8 +12407,8 @@
       <c r="E451" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="F451" s="2" t="s">
-        <v>578</v>
+      <c r="F451" s="4" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="452" spans="1:6">
